--- a/data/05_input/zm.bs17b.xlsx
+++ b/data/05_input/zm.bs17b.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/EF3021BF-3BE4-4E20-8892-E4D04A525B05/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C0802109-C06F-413E-B5DD-47AB76027B35/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A373F1-FAAC-5B42-A03E-B2EB5D72E15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0B5D2-CB55-B249-BB9D-76B7F7D0530D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="12200" yWindow="4780" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>SampleID</t>
   </si>
@@ -57,415 +57,418 @@
     <t>s01</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index10_S2_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index10_S2_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index11_S3_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index11_S3_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index12_S4_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index12_S4_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index13_S5_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index13_S5_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index14_S6_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index14_S6_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index15_S7_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index15_S7_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index16_S8_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index16_S8_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index18_S9_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index18_S9_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index19_S10_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index19_S10_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index1_S1_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index1_S1_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index20_S11_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index20_S11_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index21_S12_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index21_S12_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s13</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index22_S13_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index22_S13_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s14</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index23_S14_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index23_S14_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s15</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index25_S15_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index25_S15_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s16</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index27_S16_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index27_S16_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index3_S17_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index3_S17_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s18</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index4_S18_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index4_S18_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s19</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index5_S19_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index5_S19_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s20</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index6_S20_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index6_S20_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s21</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index7_S21_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index7_S21_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index8_S22_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index8_S22_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s23</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index9_S23_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN31_BS_Index9_S23_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s24</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index10_S25_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index10_S25_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s25</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index11_S26_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index11_S26_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s26</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index12_S27_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index12_S27_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s27</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index13_S28_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index13_S28_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s28</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index14_S29_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index14_S29_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s29</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index15_S30_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index15_S30_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s30</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index16_S31_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index16_S31_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s31</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index18_S32_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index18_S32_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s32</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index19_S33_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index19_S33_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s33</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index1_S24_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index1_S24_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s34</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index20_S34_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index20_S34_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s35</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index21_S35_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index21_S35_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s36</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index22_S36_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index22_S36_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s37</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index23_S37_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index23_S37_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s38</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index25_S38_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index25_S38_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s39</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index27_S39_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index27_S39_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s40</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index3_S40_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index3_S40_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s41</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index4_S41_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index4_S41_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s42</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index5_S42_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index5_S42_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index6_S43_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index6_S43_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s44</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index7_S44_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index7_S44_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s45</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index8_S45_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index8_S45_R2_001.fastq</t>
-  </si>
-  <si>
     <t>s46</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index9_S46_R1_001.fastq</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/170703_D00635_0261_ACBCA2ANXX/Springer_Project_054/JN32_BS_Index9_S46_R2_001.fastq</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index10_S2_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index10_S2_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index11_S3_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index11_S3_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index12_S4_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index12_S4_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index13_S5_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index13_S5_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index14_S6_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index14_S6_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index15_S7_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index15_S7_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index16_S8_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index16_S8_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index18_S9_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index18_S9_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index19_S10_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index19_S10_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index1_S1_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index1_S1_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index20_S11_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index20_S11_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index21_S12_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index21_S12_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index22_S13_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index22_S13_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index23_S14_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index23_S14_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index25_S15_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index25_S15_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index27_S16_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index27_S16_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index3_S17_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index3_S17_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index4_S18_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index4_S18_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index5_S19_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index5_S19_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index6_S20_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index6_S20_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index7_S21_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index7_S21_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index8_S22_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index8_S22_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index9_S23_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN31_BS_Index9_S23_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index10_S25_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index10_S25_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index11_S26_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index11_S26_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index12_S27_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index12_S27_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index13_S28_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index13_S28_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index14_S29_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index14_S29_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index15_S30_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index15_S30_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index16_S31_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index16_S31_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index18_S32_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index18_S32_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index19_S33_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index19_S33_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index1_S24_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index1_S24_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index20_S34_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index20_S34_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index21_S35_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index21_S35_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index22_S36_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index22_S36_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index23_S37_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index23_S37_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index25_S38_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index25_S38_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index27_S39_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index27_S39_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index3_S40_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index3_S40_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index4_S41_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index4_S41_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index5_S42_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index5_S42_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index6_S43_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index6_S43_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index7_S44_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index7_S44_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index8_S45_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index8_S45_R2_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index9_S46_R1_001.fastq</t>
+  </si>
+  <si>
+    <t>170703_D00635_0261_ACBCA2ANXX/JN32_BS_Index9_S46_R2_001.fastq</t>
   </si>
 </sst>
 </file>
@@ -820,8 +823,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:C47"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="H2:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,779 +868,779 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>55</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>55</v>
       </c>
       <c r="H36" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="F37" t="s">
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="F38" t="s">
+        <v>55</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="F39" t="s">
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>55</v>
       </c>
       <c r="H40" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>55</v>
       </c>
       <c r="H44" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>55</v>
       </c>
       <c r="H45" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>55</v>
       </c>
       <c r="H46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>55</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
